--- a/src/main/resources/static/excel/InfoModel.xlsx
+++ b/src/main/resources/static/excel/InfoModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhazha\teacherHomePaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83036086-9FC6-4652-B81D-E8D8DFB64CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6FC5C1-171E-4AA8-9B7D-D2C24966A4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28110" yWindow="1935" windowWidth="24510" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
   </si>
@@ -28,35 +28,39 @@
     <t>性别</t>
   </si>
   <si>
+    <t>学历学位</t>
+  </si>
+  <si>
+    <t>职称</t>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>头衔</t>
+  </si>
+  <si>
+    <t>所在部门</t>
+  </si>
+  <si>
+    <t>办公电话</t>
+  </si>
+  <si>
     <t>邮箱</t>
   </si>
   <si>
-    <t>职称</t>
-  </si>
-  <si>
-    <t>职务</t>
-  </si>
-  <si>
-    <t>头衔</t>
-  </si>
-  <si>
-    <t>学历学位</t>
-  </si>
-  <si>
     <t>研究方向</t>
   </si>
   <si>
     <t>办公地点</t>
-  </si>
-  <si>
-    <t>办公电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -76,6 +80,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,11 +131,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -156,7 +170,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{03BD4200-8D8E-473A-8255-BD251CFBDAD1}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{33D2E54E-9D20-4762-B295-7EA9F7C65D3C}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -469,24 +483,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="100" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="4" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,13 +522,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
